--- a/_Notes_/Curriculum.xlsx
+++ b/_Notes_/Curriculum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\acciojob\stats\sessions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\statistics\_Notes_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A815134D-25AD-48A7-AE15-7657258B25B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB637E60-2A2C-4B74-9A10-A823183BB644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1770" windowWidth="29040" windowHeight="15720" xr2:uid="{19CD23DE-3848-4413-AC20-25E8B3EEBD64}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{19CD23DE-3848-4413-AC20-25E8B3EEBD64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,6 +402,45 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -412,45 +451,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,7 +458,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9D5B8145-36BE-4282-AB67-3B488010C15C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -471,9 +473,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +513,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -617,7 +619,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -759,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -770,12 +772,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F42"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="97.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,42 +805,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="31">
         <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="191.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="153" x14ac:dyDescent="0.45">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="3">
         <v>1</v>
       </c>
@@ -841,14 +851,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="20">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="33">
         <v>4</v>
       </c>
       <c r="D5" s="4">
@@ -861,10 +871,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="127.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
@@ -875,10 +885,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="63.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="20"/>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="4">
         <v>2</v>
       </c>
@@ -889,10 +899,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="165.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="4">
         <v>3</v>
       </c>
@@ -903,10 +913,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="4">
         <v>3</v>
       </c>
@@ -917,10 +927,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="153" x14ac:dyDescent="0.45">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="20"/>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -931,14 +941,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.45">
-      <c r="A11" s="22">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="27">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="27">
         <v>3</v>
       </c>
       <c r="D11" s="5">
@@ -951,36 +961,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="22"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="22"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5">
         <v>4</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="22"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="5">
         <v>4</v>
       </c>
@@ -991,68 +1001,68 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.45">
-      <c r="A15" s="24">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="29">
         <v>4</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="29">
         <v>3</v>
       </c>
       <c r="D15" s="6">
         <v>5</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="29" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.45">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="6">
         <v>5</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="6">
         <v>5</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.45">
-      <c r="A19" s="26">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="23">
         <v>5</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="23">
         <v>2</v>
       </c>
       <c r="D19" s="8">
@@ -1065,10 +1075,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.45">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="8">
         <v>6</v>
       </c>
@@ -1077,10 +1087,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.45">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="8">
         <v>6</v>
       </c>
@@ -1089,14 +1099,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="64.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="28">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="25">
         <v>6</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="25">
         <v>2</v>
       </c>
       <c r="D22" s="10">
@@ -1109,10 +1119,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="39" x14ac:dyDescent="0.45">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="28"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="10">
         <v>7</v>
       </c>
@@ -1122,9 +1132,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="10">
         <v>7</v>
       </c>
@@ -1132,23 +1142,23 @@
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="10">
         <v>7</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A26" s="30">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="19">
         <v>7</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="19">
         <v>6</v>
       </c>
       <c r="D26" s="12">
@@ -1161,10 +1171,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="51.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="30"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="12">
         <v>8</v>
       </c>
@@ -1175,10 +1185,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="51.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="30"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="12">
         <v>8</v>
       </c>
@@ -1189,10 +1199,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="77.25" x14ac:dyDescent="0.45">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="30"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="12">
         <v>9</v>
       </c>
@@ -1203,10 +1213,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="64.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="12">
         <v>9</v>
       </c>
@@ -1217,10 +1227,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="64.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="30"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="12">
         <v>9</v>
       </c>
@@ -1231,10 +1241,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="39" x14ac:dyDescent="0.45">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="30"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="12">
         <v>10</v>
       </c>
@@ -1246,9 +1256,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="12">
         <v>10</v>
       </c>
@@ -1259,10 +1269,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="30"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="12">
         <v>10</v>
       </c>
@@ -1274,13 +1284,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="32">
+      <c r="A35" s="21">
         <v>8</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="21">
         <v>4</v>
       </c>
       <c r="D35" s="13">
@@ -1294,9 +1304,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="32"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="13">
         <v>11</v>
       </c>
@@ -1308,9 +1318,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="32"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="13">
         <v>12</v>
       </c>
@@ -1321,10 +1331,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="32"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="13">
         <v>12</v>
       </c>
@@ -1335,14 +1345,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="39" x14ac:dyDescent="0.45">
-      <c r="A39" s="34">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="18">
         <v>9</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="18">
         <v>2</v>
       </c>
       <c r="D39" s="15">
@@ -1355,10 +1365,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="18"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="15">
         <v>13</v>
       </c>
@@ -1370,7 +1380,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="34"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -1378,7 +1388,7 @@
       <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="34"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -1387,6 +1397,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="A26:A34"/>
@@ -1395,27 +1426,6 @@
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:C38"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C5:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_Notes_/Curriculum.xlsx
+++ b/_Notes_/Curriculum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Acciojob\Modules\statistics\_Notes_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB637E60-2A2C-4B74-9A10-A823183BB644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FD402D-AB4F-444D-862F-5B8E5FB6D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" xr2:uid="{19CD23DE-3848-4413-AC20-25E8B3EEBD64}"/>
   </bookViews>
@@ -772,7 +772,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
